--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1487.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1487.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.420621796866872</v>
+        <v>1.508429169654846</v>
       </c>
       <c r="B1">
-        <v>2.28189708675225</v>
+        <v>3.989296197891235</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.553694248199463</v>
       </c>
       <c r="D1">
-        <v>1.696915340198188</v>
+        <v>1.481488466262817</v>
       </c>
       <c r="E1">
-        <v>0.6712610169917668</v>
+        <v>0.9731921553611755</v>
       </c>
     </row>
   </sheetData>
